--- a/Week3/RunningTime copy.xlsx
+++ b/Week3/RunningTime copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Desktop/DSA/Week1/Week1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Desktop/DSA/Week3/ropesTestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029612D8-51DB-D843-8A24-D28C45820F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146ED3ED-153D-9340-AF0B-11358BBF80E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CEB7F8C8-D50F-43F1-99EC-D054581DC40D}"/>
+    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" xr2:uid="{CEB7F8C8-D50F-43F1-99EC-D054581DC40D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>t1000.in</t>
-  </si>
-  <si>
-    <t>t2000.in</t>
-  </si>
-  <si>
-    <t>t4000.in</t>
-  </si>
-  <si>
-    <t>t8000.in</t>
-  </si>
-  <si>
-    <t>t16000.in</t>
-  </si>
-  <si>
-    <t>t32000.in</t>
-  </si>
-  <si>
-    <t>m2kNaive</t>
-  </si>
-  <si>
-    <t>m2kLoop</t>
-  </si>
-  <si>
-    <t>m2kList</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>m2kBinS</t>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>1000ropes.in</t>
+  </si>
+  <si>
+    <t>2000ropes.in</t>
+  </si>
+  <si>
+    <t>4000ropes.in</t>
+  </si>
+  <si>
+    <t>8000ropes.in</t>
+  </si>
+  <si>
+    <t>16000ropes.in</t>
+  </si>
+  <si>
+    <t>32000ropes.in</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -199,7 +196,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>m2kLoop</c:v>
+                  <c:v>Heap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -262,22 +259,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.9627999999999995E-2</c:v>
+                  <c:v>1.2699999999999501E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23682300000000001</c:v>
+                  <c:v>1.28000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.034807</c:v>
+                  <c:v>1.3099999999999901E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8548100000000001</c:v>
+                  <c:v>1.20999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.953623</c:v>
+                  <c:v>1.46E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.535719</c:v>
+                  <c:v>1.4799999999999501E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,9 +294,6 @@
               <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>m2kList</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -360,24 +354,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.5322000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7408999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38969500000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.514867</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6624349999999897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.306916999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -396,9 +372,6 @@
               <c:f>Sheet1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>m2kBinS</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -459,24 +432,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.8839999999999899E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9579999999999902E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3141999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4188000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9621999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10227</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -491,7 +446,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>m2kNaive</c:v>
+            <c:v>SelectionSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -524,22 +479,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.15598100000000001</c:v>
+                  <c:v>3.0229999999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66817700000000002</c:v>
+                  <c:v>0.126914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.47898</c:v>
+                  <c:v>0.51370300000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.108466</c:v>
+                  <c:v>2.0303179999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.771323000000002</c:v>
+                  <c:v>8.3177709999999898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160.245285</c:v>
+                  <c:v>31.837586000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,6 +636,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -838,7 +801,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>m2kLoop</c:v>
+                  <c:v>Heap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -901,22 +864,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.9627999999999995E-2</c:v>
+                  <c:v>1.2699999999999501E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23682300000000001</c:v>
+                  <c:v>1.28000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.034807</c:v>
+                  <c:v>1.3099999999999901E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8548100000000001</c:v>
+                  <c:v>1.20999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.953623</c:v>
+                  <c:v>1.46E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.535719</c:v>
+                  <c:v>1.4799999999999501E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,9 +899,6 @@
               <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>m2kList</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -999,24 +959,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.5322000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7408999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38969500000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.514867</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6624349999999897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.306916999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1035,9 +977,6 @@
               <c:f>Sheet1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>m2kBinS</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1098,24 +1037,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.8839999999999899E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9579999999999902E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3141999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4188000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9621999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10227</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1130,7 +1051,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>m2kNaive</c:v>
+            <c:v>Selection</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1163,22 +1084,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.15598100000000001</c:v>
+                  <c:v>3.0229999999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66817700000000002</c:v>
+                  <c:v>0.126914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.47898</c:v>
+                  <c:v>0.51370300000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.108466</c:v>
+                  <c:v>2.0303179999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.771323000000002</c:v>
+                  <c:v>8.3177709999999898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160.245285</c:v>
+                  <c:v>31.837586000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,6 +1242,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2485,13 +2414,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
+      <xdr:colOff>634546</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>270328</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
@@ -2856,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB4CC37-DC1B-46C6-B9D8-0B13F3530076}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2867,154 +2796,117 @@
     <col min="2" max="7" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <v>0.15598100000000001</v>
+        <v>3.0229999999999899E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>6.9627999999999995E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.5322000000000001E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.8839999999999899E-3</v>
+        <v>1.2699999999999501E-4</v>
       </c>
       <c r="H3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>2000</v>
       </c>
       <c r="D4" s="1">
-        <v>0.66817700000000002</v>
+        <v>0.126914</v>
       </c>
       <c r="E4" s="1">
-        <v>0.23682300000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9.7408999999999996E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5.9579999999999902E-3</v>
+        <v>1.28000000000003E-4</v>
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>4000</v>
       </c>
       <c r="D5" s="1">
-        <v>2.47898</v>
+        <v>0.51370300000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>1.034807</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.38969500000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.3141999999999999E-2</v>
+        <v>1.3099999999999901E-4</v>
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>8000</v>
       </c>
       <c r="D6" s="1">
-        <v>11.108466</v>
+        <v>2.0303179999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>3.8548100000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.514867</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.4188000000000001E-2</v>
+        <v>1.20999999999996E-4</v>
       </c>
       <c r="H6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>16000</v>
       </c>
       <c r="D7" s="1">
-        <v>40.771323000000002</v>
+        <v>8.3177709999999898</v>
       </c>
       <c r="E7" s="1">
-        <v>16.953623</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6.6624349999999897</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.9621999999999999E-2</v>
+        <v>1.46E-4</v>
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>32000</v>
       </c>
       <c r="D8" s="1">
-        <v>160.245285</v>
+        <v>31.837586000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>70.535719</v>
-      </c>
-      <c r="F8" s="1">
-        <v>24.306916999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.10227</v>
+        <v>1.4799999999999501E-4</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
